--- a/data/batch_no1/Yxs_table.xlsx
+++ b/data/batch_no1/Yxs_table.xlsx
@@ -509,7 +509,7 @@
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
         <v>10.36</v>
@@ -534,7 +534,9 @@
       <c r="B4" t="n">
         <v>-0.058</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.8</v>
+      </c>
       <c r="D4" t="n">
         <v>10.4</v>
       </c>
@@ -678,7 +680,9 @@
       <c r="B10" t="n">
         <v>0.847</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="D10" t="n">
         <v>3.14</v>
       </c>
@@ -702,7 +706,9 @@
       <c r="B11" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="D11" t="n">
         <v>2.08</v>
       </c>
